--- a/public/templates/modele-import-affectations.xlsx
+++ b/public/templates/modele-import-affectations.xlsx
@@ -12,48 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
-  <si>
-    <t>Prénom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>Date naissance</t>
-  </si>
-  <si>
-    <t>Lieu naissance</t>
-  </si>
-  <si>
-    <t>Niveau diplôme</t>
-  </si>
-  <si>
-    <t>Spécialité</t>
-  </si>
-  <si>
-    <t>Établissement</t>
-  </si>
-  <si>
-    <t>Institution affectation</t>
+    <t>Prénom(s)</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Lieu de naissance</t>
+  </si>
+  <si>
+    <t>Diplôme</t>
+  </si>
+  <si>
+    <t>Lieu d'obtention du diplôme</t>
+  </si>
+  <si>
+    <t>Lieu d'affectation</t>
+  </si>
+  <si>
+    <t>Numéro de décret</t>
+  </si>
+  <si>
+    <t>Dupont</t>
   </si>
   <si>
     <t>Jean</t>
   </si>
   <si>
-    <t>Dupont</t>
-  </si>
-  <si>
     <t>15/3/1995</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Informatique</t>
+    <t>Master Informatique</t>
   </si>
   <si>
     <t>Université de Paris</t>
@@ -62,22 +59,22 @@
     <t>Ministère de la Défense</t>
   </si>
   <si>
+    <t>DECRET_2024_001</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
     <t>Marie</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
     <t>22/7/1996</t>
   </si>
   <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Licence</t>
-  </si>
-  <si>
-    <t>Administration</t>
+    <t>Licence Administration</t>
   </si>
   <si>
     <t>Université Lyon 2</t>
@@ -86,19 +83,19 @@
     <t>Ministère de l'Intérieur</t>
   </si>
   <si>
+    <t>Diallo</t>
+  </si>
+  <si>
     <t>Ahmed</t>
   </si>
   <si>
-    <t>Diallo</t>
-  </si>
-  <si>
     <t>8/11/1994</t>
   </si>
   <si>
     <t>Niamey</t>
   </si>
   <si>
-    <t>Génie Civil</t>
+    <t>Master Génie Civil</t>
   </si>
   <si>
     <t>Université Abdou Moumouni</t>
@@ -122,7 +119,7 @@
     <t>2. Respectez exactement le format des en-têtes (ne pas modifier)</t>
   </si>
   <si>
-    <t>3. Les champs obligatoires sont tous les colonnes présentes</t>
+    <t>3. Les colonnes indiquées sont toutes obligatoires</t>
   </si>
   <si>
     <t>4. Format de date : J/M/AAAA (exemple: 15/3/1995)</t>
@@ -134,40 +131,40 @@
     <t>COLONNES REQUISES :</t>
   </si>
   <si>
-    <t>• Prénom : Prénom de la personne</t>
-  </si>
-  <si>
     <t>• Nom : Nom de famille</t>
   </si>
   <si>
-    <t>• Date naissance : Format J/M/AAAA</t>
-  </si>
-  <si>
-    <t>• Lieu naissance : Ville de naissance</t>
-  </si>
-  <si>
-    <t>• Niveau diplôme : Licence, Master, Doctorat, etc.</t>
-  </si>
-  <si>
-    <t>• Spécialité : Domaine d'études</t>
-  </si>
-  <si>
-    <t>• Établissement : Nom de l'université/école</t>
-  </si>
-  <si>
-    <t>• Institution affectation : Ministère ou organisme d'affectation</t>
+    <t>• Prénom(s) : Prénom ou liste de prénoms</t>
+  </si>
+  <si>
+    <t>• Date de naissance : Format J/M/AAAA</t>
+  </si>
+  <si>
+    <t>• Lieu de naissance : Ville ou pays de naissance</t>
+  </si>
+  <si>
+    <t>• Diplôme : Intitulé complet du diplôme obtenu</t>
+  </si>
+  <si>
+    <t>• Lieu d'obtention du diplôme : Établissement où le diplôme a été délivré</t>
+  </si>
+  <si>
+    <t>• Lieu d'affectation : Ministère ou organisme d'affectation</t>
+  </si>
+  <si>
+    <t>• Numéro de décret : Numéro unique du décret correspondant</t>
   </si>
   <si>
     <t>EXEMPLES DE VALEURS ACCEPTÉES :</t>
   </si>
   <si>
-    <t>Niveau diplôme : Licence, Master, Doctorat, BTS, DUT, Ingénieur</t>
-  </si>
-  <si>
-    <t>Spécialité : Informatique, Droit, Médecine, Économie, etc.</t>
-  </si>
-  <si>
-    <t>Institution affectation : Ministère de la Santé, Ministère de l'Éducation, etc.</t>
+    <t>Diplôme : Licence en Droit, Master Informatique, Doctorat en Médecine</t>
+  </si>
+  <si>
+    <t>Lieu d'obtention du diplôme : Université de Paris, ENS, etc.</t>
+  </si>
+  <si>
+    <t>Lieu d'affectation : Ministère de la Santé, Ministère de l'Éducation, etc.</t>
   </si>
   <si>
     <t>ATTENTION :</t>
@@ -600,12 +597,11 @@
   <dimension ref="A1:H4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,24 +679,24 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -709,7 +705,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -728,157 +724,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
